--- a/ASME B1.1.xlsx
+++ b/ASME B1.1.xlsx
@@ -713,13 +713,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:T368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,40 +1015,38 @@
     <col min="3" max="3" width="10.5546875" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="25"/>
     <col min="5" max="5" width="11.33203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.77734375" style="25" customWidth="1"/>
+    <col min="8" max="9" width="19.77734375" style="25" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="3"/>
     <col min="11" max="20" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>146</v>
       </c>
       <c r="K1" s="9"/>
@@ -2050,7 +2048,7 @@
       <c r="I33" s="5">
         <v>0.16289999999999999</v>
       </c>
-      <c r="N33" s="26"/>
+      <c r="N33" s="27"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
@@ -2080,7 +2078,7 @@
       <c r="I34" s="5">
         <v>0.16880000000000001</v>
       </c>
-      <c r="N34" s="27"/>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
@@ -2110,7 +2108,7 @@
       <c r="I35" s="5">
         <v>0.16969999999999999</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="28"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
